--- a/Assets/07Table/DC.xlsx
+++ b/Assets/07Table/DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpgml\Documents\GitHub\DC\Assets\07Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A29F2-07F4-4BA1-87A8-745086F68BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5CC93E-2525-4346-ABFB-9307614E6D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13905" windowHeight="13755" firstSheet="1" activeTab="1" xr2:uid="{FE9215E3-7F1A-4C13-BA27-E6A65D1A04B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{FE9215E3-7F1A-4C13-BA27-E6A65D1A04B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="11" r:id="rId1"/>
@@ -44,42 +44,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="436">
   <si>
     <t>Name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Front</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SquadID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MonsterID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MinHP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MaxHP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MinGage</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MaxGage</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Character</t>
@@ -89,91 +89,91 @@
   </si>
   <si>
     <t>MaxCount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Explanation</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Potion</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Food</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Oil</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Purchase</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Sale</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>기름</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>썬더 볼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Character</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ATK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Water</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Fire</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Earth</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Icon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Path</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Skill_ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>"3"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Consumable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DEF</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EXP</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>슬라임</t>
@@ -237,31 +237,31 @@
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ghoul</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GoblinBoss</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Floor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Monster</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Animator</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>"계층의 주인을 해치우다니, 보기보다 꽤 하는데?""내가 누구냐고? 그런 건 중요하지 않지만
@@ -269,58 +269,58 @@
 뭐라도 좀 사가는 건 어때?""혹시 다음 층에 도전하고 싶거나, 던전에서 탈출하고 싶다면 말해.
 그 정도는 공짜로 도와주지.
 어떻게 도와줄 거냐고? 그건 영업비밀이야."</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GoldBar</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CharacterID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>수수께끼의 상인</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Magnification</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bandage</t>
   </si>
   <si>
     <t>붕대</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>폭탄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bomb</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>해독제</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Antidote</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Reinforcement</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Rune</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemRed3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemRed4</t>
@@ -330,7 +330,7 @@
   </si>
   <si>
     <t>GemBlue3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemBlue4</t>
@@ -340,152 +340,148 @@
   </si>
   <si>
     <t>랜덤 강화 재료</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 강화석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Grade</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemYellow3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>랜덤 강화 재료가 등장합니다. 재료를 획득하지 않으면 자동으로 판매됩니다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Attribute</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>에너지 볼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적 한체에게 마력의 구체를 발사하여 일반 속성 피해를 입힌다.</t>
   </si>
   <si>
     <t>Cast</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Area</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>파이어 볼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Red</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적 한체에게 마력의 구체를 발사하여 불 속성 피해를 입힌다.</t>
   </si>
   <si>
     <t>워터 볼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Blue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적 한체에게 마력의 구체를 발사하여 물 속성 피해를 입힌다.</t>
   </si>
   <si>
     <t>적 한체에게 마력의 구체를 발사하여 전기 속성 피해를 입힌다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>어스 볼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적 한체에게 마력의 구체를 발사하여 땅 속성 피해를 입힌다.</t>
   </si>
   <si>
     <t>익스플로전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Delete</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Add</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>강렬한 폭발을 일으켜 적 전체에게 불 속성 피해를 입힌다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>고온의 화염 구체를 하늘에 떠올려, 적들 전체에 지속 피해를 입힌다.</t>
   </si>
   <si>
     <t>라이징 썬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>거친 파도를 날려보내 일렬의 적들을 덮친다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>서지 웨이브</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>D_Amount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>A_Amount</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>라이트닝 레인</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>무작위 적에게 낙뢰를 떨어뜨린다. 스킬볼을 많이 터뜨릴수록 낙뢰의 개수가 증가한다.</t>
   </si>
   <si>
     <t>Exploration</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Bubble</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SkillBall</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SurgeWave</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>RisingSun</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Explosion</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LightningRain</t>
   </si>
   <si>
     <t>어스 스피어</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EarthSpear</t>
@@ -495,145 +491,145 @@
   </si>
   <si>
     <t>에너지 배쉬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>거대한 바위를 솟아나게 하여 적 한 체에 강력한 땅 속성 피해를 입힌다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>순수한 파괴의 에너지로 적을 찍어 눌러 적 한 체에 강력한 일반 속성 피해를 입힌다.</t>
   </si>
   <si>
     <t>프로텍션</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적의 공격을 방어하는 실드를 만들어낸다.실드가 있는 상태에서 공격당해도 상태이상 걸리지 않는다. 실드 체력이 1이라도 남으면 무조건 한번은 피해 없이 공격을 막는다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Protection</t>
   </si>
   <si>
     <t>힐링</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Healing</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>체력을 즉시 회복시킨다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Lemon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LightGreen</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Violet</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DeepRed</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SeaBlue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LightBrown</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>White</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Thunder</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>차가운 돌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>불의 돌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>물의 돌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>전기의 돌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Effect</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>일반적인 돌멩이처럼 보이지만, 차가운 기운이 감돌고 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>땅의 돌</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>혈석 파편</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>배타의 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>고대 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>고대 목걸이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>의식용 단검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>마도서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>청동 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>원초의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>주박의 사슬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>건곤의 단검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>석문의 마도서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>붉은 색의 마석 조각이다. 미약한 불의 기운을 담고 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>푸른 색의 마석 조각이다. 미약한 물의 기운을 담고 있다.</t>
@@ -643,34 +639,34 @@
   </si>
   <si>
     <t>초록 색의 마석 조각이다. 미약한 땅의 기운을 담고 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>흉흉한 기운이 감도는 작은 돌덩이다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>체력 +20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>방어력 +10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>아름다운 거울이지만 무엇도 비추지 못 한다. 거울 스스로가 모든 것을 거부하는 듯하다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>흔한 반지처럼 보이지만, 고대의 마력을 품고 있다.</t>
   </si>
   <si>
     <t>공격력 +10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>흔한 목걸이처럼 보이지만, 미약한 마력의 잔재가 느껴진다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>크리티컬 확률 +10%</t>
@@ -686,70 +682,70 @@
   </si>
   <si>
     <t>캐스팅 시간 -10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>매 전투마다 스킬을 3회 사용할 때까지 공격력 두 배.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>크리티컬 확률 -10%, 전투 시작 후 매 초마다 크리티컬 확률이 1%씩 증가.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>크리티컬이 발생하지 않았을 때의 대미지 -25%, 크리티컬이 발생했을 때의 대미지 +25%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>캐스팅 시간 감소 스탯에 비례하여 모든 속성 대미지 증가.</t>
   </si>
   <si>
     <t>ColdStone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FireStone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WaterStone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ElectricStone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EarthStone</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BloodStoneFragment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AncientRing</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AncientNecklace</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BronzeMirror</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>First</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Second</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>차가운 보석</t>
@@ -762,283 +758,283 @@
   </si>
   <si>
     <t>금강석 파편</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DiamondFragment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>화염의 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>천둥의 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>대자연의 보석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>뇌재의 보석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>심해의 보석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>홍련의 보석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>대지의 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>현자의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>현자의 목걸이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>저주의 단검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>네크로노미콘</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>혈석 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>혈석 목걸이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>혈석 단검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AntiMirror</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>RitualDagger</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SpellBook</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>OriginalRing</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CursedChain</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>HeavenAndEarthDagger</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>StoneSpellBook</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Target</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>All</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Row</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
     <t>Orange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>YellowGreen</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>RedOrange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ThunderMirror</t>
   </si>
   <si>
     <t>FireMirror</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WaterMirror</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>바다의 거울</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>불사조의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>PheonixRing</t>
   </si>
   <si>
     <t>흉조의 펜던트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BadOmenPandent</t>
   </si>
   <si>
     <t>영원의 불꽃검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EternalFlameSword</t>
   </si>
   <si>
     <t>폭쇄의 주문서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ChainSpellBook</t>
   </si>
   <si>
     <t>만류의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WaveRing</t>
   </si>
   <si>
     <t>흐름의 운명검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FlowFateSword</t>
   </si>
   <si>
     <t>심해의 목걸이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>AzureSeaNeckglace</t>
   </si>
   <si>
     <t>영겁의 예언서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EternalSpellBook</t>
   </si>
   <si>
     <t>섬광의 인장</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FlashRing</t>
   </si>
   <si>
     <t>잔상의 목걸이</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>찰나의 계시검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>빛나는 시간의 서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>굳건함의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SteadRing</t>
   </si>
   <si>
     <t>암석의 사슬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>붕괴의 대검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>매마른 대지의 서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>피안의 반지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>피의 낙인</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>희생의 혈검</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적월의 금서</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>현무의 귀갑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>불굴의 보루</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>금강아</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>성왕의 법전</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>포션 이외의 방법으로 체력 회복 시, 회복량 +30% 및 타겟으로 설정한 적에게 회복량의 30%에 해당하는 불 속성 피해를 입힌다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>공격을 적중시킬 때마다 피격당한 적의 방어력 -5%, 방어력이 0인 대상 공격 시 크리티컬 확률 +15%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적을 공격 시 피격당한 적에게 '화상' 상태를 부여한다. 화상 상태에 빠진 대상은 매초 {0.05 * (공격력) * (중첩 수)} 만큼의 화염 속성 피해를 입는다. 중첩은 매 공격 판정마다 1회 발생하며, 최대 6회 중첩 가능하다. 화상 상태의 유지시간은 3초이며, 대상이 유저의 스킬에 피격당할 시 0으로 초기화된다.</t>
@@ -1046,207 +1042,139 @@
   <si>
     <t>스킬을 발동할 때마다 유저에게 ‘고속영창’ 상태를 부여한다. 스킬 사용 완료 후 다음 스킬의 캐스팅이 즉시 시작되지 않을 경우, ‘고속영창’ 중첩을 0으로 초기화한다.
 고속영창: 중첩당 영창 속도 +5%, 최대 10중첩 가능</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>배타의 거울만을 장착하고 있을 시, 공격력 +5, 방어력 +5, 체력 +10, 방어력 +5, 크리티컬 확률 +5%, 크리티컬 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>일반 속성 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>불 속성 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>물 속성 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>전기 속성 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>땅 속성 대미지 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사용중인 공격 스킬이 전부 불 속성일 경우, 불 속성 스킬의 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사용중인 공격 스킬이 전부 일반 속성일 경우, 일반 속성 스킬의 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사용중인 공격 스킬이 전부 물 속성일 경우, 물 속성 스킬의 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>공격 스킬, 방어 스킬, 지원 스킬을 전부 하나 이상 채용했을 경우, 모든 스킬의 대미지 +20%, 영창 속도 +10%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>크리티컬 적중 시, 피격당한 적의 행동 속도를 5초간 30% 감소</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>이전 공격이 크리티컬로 적중했을 시, 다음 공격의 크리티컬 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>전투 시작 후 10초마다 1회, 다음에 받는 피해를 흡수하는 보호막을 생성한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사용중인 공격 스킬이 전부 전기 속성일 경우, 전기 속성 스킬의 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>이전 스킬에서 크리티컬이 발동했을 시, 다음 스킬을 사용할 때까지 공격력 +15. 크리티컬이 발생하지 않았을 시, 다음 스킬을 사용할 때까지 크리티컬 확률 +15%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>모든 스킬의 대미지를 55%로 만드는 대신, 스킬로 발생하는 모든 타격을 두 번씩 발생시킨다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>5초마다 무작위 적 한 체에게 3초간 유지되는 ‘표식’을 남긴다. 표식이 남겨진 적에게 가하는 다음번 공격은 2배의 피해를 입힌다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>스킬을 2번 사용할 때마다, 다음번 스킬의 캐스팅 시간을 0으로 만든다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사용중인 공격 스킬이 전부 땅 속성일 경우, 땅 속성 스킬의 대미지 +30%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>동일한 대상에게 연속해서 공격 적중 시, ‘대지의 굳건함’ 중첩을 얻는다. 대지의 굳건함: 최대 10스택 중첩이 가능하며, 매 중첩마다 공격력을 2%씩 상승시킨다. 대지의 굳건함 중첩 10스택에 도달 시, 타겟에게 낙석을 발생시켜 {2.0 * (공격력)}의 대미지를 입히고 대지의 굳건함 스택을 0으로 초기화한다. 다른 대상에게 피해를 입힐 시, 대지의 굳건함 스택을 0으로 초기화한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>유저의 현재 체력이 적을수록 방어력이 증가하고 받는 피해가 감소한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>공격력이 60% 증가하지만, 모든 공격이 30% 확률로 빗나간다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>매초 최대 체력의 2%에 비례하는 피해를 입는 대신, 몬스터들에게 부여된 상태이상의 수에 비례하여 매초마다 체력을 회복한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>공격력이 30% 증가하지만, 받는 모든 체력 회복량이 절반으로 감소한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>모든 공격이 20% 확률로 출혈 상태를 부여할 수 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>이번 전투에서 감소한 체력에 비례하여 크리티컬 대미지를 증가시킨다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>적을 처치할 때마다 ‘붉은 달’ 스택이 1 증가한다. 붉은 달 스택이 3에 도달할 시, 다음 공격 피해량의 50%만큼 체력을 회복하고 ‘붉은 달’ 스택을 0으로 초기화한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>실드를 보유중일 경우 공격력이 20% 증가한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>한 번의 공격으로 받을 수 있는 대미지의 최대값을 최대체력의 20%로 고정시킨다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>방어력 스탯에 비례하여 크리티컬 대미지가 증가한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>받는 피해의 50%를, 공격한 적에게 반사한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemWhite3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 잼 4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 잼 5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 잼 4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 잼 5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 잼 4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 잼 5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>영창속도 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>영창속도 잼 4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>영창속도 잼 5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 잼 4</t>
-  </si>
-  <si>
-    <t>크리티컬 잼 5</t>
-  </si>
-  <si>
-    <t>크리티컬 대미지 잼 3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 대미지 잼 4</t>
-  </si>
-  <si>
-    <t>크리티컬 대미지 잼 5</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemGreen3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemGreen4</t>
@@ -1256,7 +1184,7 @@
   </si>
   <si>
     <t>GemPurple3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemPurple4</t>
@@ -1272,7 +1200,7 @@
   </si>
   <si>
     <t>GemOrange3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GemOrange4</t>
@@ -1282,68 +1210,68 @@
   </si>
   <si>
     <t>체력 포션</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>먹음직스러운 붉은 빛이 도는 포션. 사용하여 전체 체력의 30%를 회복한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>모험가들을 위한 보존식. 사용하여 25의 허기를 회복한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>랜턴을 밝히기 위한 기름. 사용하여 50의 불빛을 회복한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>건강한 초록 빛이 도는 포션. 사용하여 중독 상태를 치료한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>깨끗하진 않지만 쓸만해 보이는 붕대. 사용하여 출혈 상태를 치료한다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>불을 붙이면 폭발하는 폭탄. 금이 간 벽 정도는 부술 수 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>순금으로 이루어진 금괴. 묵직한 걸 보아하니 가격이 꽤나 나갈 듯하다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>고블린의 귀</t>
   </si>
   <si>
     <t>수상한 우상</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>금괴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>수상함을 형상화한 듯한 조각상. 무언가 신앙의 대상인 것처럼 보인다.</t>
   </si>
   <si>
     <t>슬라임의 핵</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>개구리의 독</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>포이즌 프로그가 분비한 독. 연금술에서 귀중하게 사용되는 듯하다.</t>
   </si>
   <si>
     <t>슬라임을 구성하는 핵. 보통 슬라임 처치 과정에서 파괴되지만, 형태를 유지하는 경우도 드물게 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>고블린을 사냥한 증표. 왠지 모르게 취급하는 상인이 많은 듯하다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>수상한 버섯</t>
@@ -1353,162 +1281,441 @@
   </si>
   <si>
     <t>쥐 꼬리</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>쥐의 꼬리. 본체가 큰 만큼 꼬리도 크다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>구울의 썩은 고기. 누구도 원하지 않는 쓰레기다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>썩은 고기</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>식량</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MisteryIdol</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>SlimeCore</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FrogPoison</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MisteryMushroom</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>RatTail</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>RottenMeat</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropPercent</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GoblinEar</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Cross</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Exchange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>하급 몬스터의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>중급 몬스터의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>상급 몬스터의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>빛바랜 강자의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>미약한 강자의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>강렬한 강자의 정수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>약한 몬스터들에게서 드문 확률로 발견되는 영혼의 정수.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MinFloor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>강화석</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>평범한 몬스터들에게서 드문 확률로 발견되는 영혼의 정수.</t>
   </si>
   <si>
     <t>강력한 몬스터들에게서 드문 확률로 발견되는 영혼의 정수.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>육신이 스러졌음에도 현세에 남은 불굴의 영혼. 빛바랜 불꽃이 희미하게 남아있다.</t>
   </si>
   <si>
     <t>육신이 스러졌음에도 현세에 남은 불굴의 영혼. 미약한 빛을 발하고 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>육신이 스러졌음에도 현세에 남은 불굴의 영혼. 강렬한 빛을 발하고 있다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LowEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MiddleEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>HighEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FadedEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WeakEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>IntenseEssence</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DropItem</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>TwinkleTimeBook</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundMirror</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EphemeralBlade</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedMoonBook</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneChain</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeOfHolyKing</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndomitableFortress</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geumgangah</t>
+  </si>
+  <si>
+    <t>HyeonmuArmor</t>
+  </si>
+  <si>
+    <t>SacrificeBloodSword</t>
+  </si>
+  <si>
+    <t>BloodBrand</t>
+  </si>
+  <si>
+    <t>BloodlilyRing</t>
+  </si>
+  <si>
+    <t>DryLandBook</t>
+  </si>
+  <si>
+    <t>CollapseGreatsword</t>
+  </si>
+  <si>
+    <t>ScarletLotusJewel</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepSeaJewel</t>
+  </si>
+  <si>
+    <t>LightningDisasterJewel</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NatureJewel</t>
+  </si>
+  <si>
+    <t>BloodStone</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>ColdJewel</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodDagger</t>
+  </si>
+  <si>
+    <t>BloodNecklace</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodRing</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiseRing</t>
+  </si>
+  <si>
+    <t>WiseNecklace</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedDagger</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necronomicon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 보석 Ⅰ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 보석 Ⅱ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격의 보석 Ⅲ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호의 보석 Ⅰ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호의 보석 Ⅱ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호의 보석 Ⅲ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내의 보석 Ⅰ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내의 보석 Ⅱ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내의 보석 Ⅲ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀의 보석 Ⅰ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀의 보석 Ⅱ</t>
+  </si>
+  <si>
+    <t>정밀의 보석 Ⅲ</t>
+  </si>
+  <si>
+    <t>증폭의 보석 Ⅰ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>증폭의 보석 Ⅱ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>증폭의 보석 Ⅲ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>속창의 보석 Ⅰ</t>
+  </si>
+  <si>
+    <t>속창의 보석 Ⅱ</t>
+  </si>
+  <si>
+    <t>속창의 보석 Ⅲ</t>
+  </si>
+  <si>
+    <t>영롱한 보라 빛을 발하는 보석. 장비에 장착할 시 영창 속도를 증가시키며, 50레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 보라 빛을 발하는 보석. 장비에 장착할 시 영창 속도를 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 보라 빛을 발하는 보석. 장비에 장착할 시 영창 속도를 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 주황 빛을 발하는 보석. 장비에 장착할 시 크리티컬 대미지를 증가시키며, 50레벨까지 강화할 수 있다.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>영롱한 주황 빛을 발하는 보석. 장비에 장착할 시 크리티컬 대미지를 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 주황 빛을 발하는 보석. 장비에 장착할 시 크리티컬 대미지를 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 노란 빛을 발하는 보석. 장비에 장착할 시 크리티컬 확률을 증가시키며, 50레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 노란 빛을 발하는 보석. 장비에 장착할 시 크리티컬 확률을 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 노란 빛을 발하는 보석. 장비에 장착할 시 크리티컬 확률을 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 초록 빛을 발하는 보석. 장비에 장착할 시 체력을 증가시키며, 50레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 초록 빛을 발하는 보석. 장비에 장착할 시 체력을 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 초록 빛을 발하는 보석. 장비에 장착할 시 체력을 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 푸른 빛을 발하는 보석. 장비에 장착할 시 방어력을 증가시키며, 50레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 푸른 빛을 발하는 보석. 장비에 장착할 시 방어력을 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 푸른 빛을 발하는 보석. 장비에 장착할 시 방어력을 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 붉은 빛을 발하는 보석. 장비에 장착할 시 공격력을 증가시키며, 50레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 붉은 빛을 발하는 보석. 장비에 장착할 시 공격력을 증가시키며, 40레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>영롱한 붉은 빛을 발하는 보석. 장비에 장착할 시 공격력을 증가시키며, 30레벨까지 강화할 수 있다.</t>
+  </si>
+  <si>
+    <t>신비한 기운이 느껴지는 돌덩이. 중앙의 룬에서 마력의 기운이 희미하게 느껴진다.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>루비</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파이어</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>에메랄드</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Sapphire</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>붉은 빛으로 빛나는 보석. 던전에서 흔히 발견되는 듯하다.</t>
+  </si>
+  <si>
+    <t>푸른 빛으로 빛나는 보석. 던전에서 때때로 발견되는 듯하다.</t>
+  </si>
+  <si>
+    <t>초록 빛으로 빛나는 보석. 던전에서 드물게 발견되는 듯하다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1674,11 +1881,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1688,35 +1895,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1727,10 +1946,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1739,23 +1967,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2123,7 +2348,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2132,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2E1B3E-CA27-46A0-860D-0AA4D3F95ADD}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -2192,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>24</v>
@@ -2204,13 +2429,13 @@
         <v>27</v>
       </c>
       <c r="R1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2893,7 +3118,7 @@
       <c r="I22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3132,7 +3357,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3904,17 +4129,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CB565-F802-40E3-A976-99A0856ABBB5}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3923,7 +4148,7 @@
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3943,7 +4168,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -3963,7 +4188,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3981,7 +4206,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3992,7 +4217,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -4010,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4039,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4068,7 +4293,7 @@
         <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4097,7 +4322,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4126,7 +4351,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4134,10 +4359,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -4155,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -4169,7 +4394,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4178,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4192,7 +4417,7 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -4204,13 +4429,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4221,7 +4446,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
@@ -4233,7 +4458,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4244,7 +4475,7 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
@@ -4256,7 +4487,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4267,7 +4504,7 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
         <v>75</v>
@@ -4279,7 +4516,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,7 +4533,7 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -4302,7 +4545,13 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4313,7 +4562,7 @@
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
@@ -4325,7 +4574,13 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4336,7 +4591,7 @@
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="D16" t="s">
         <v>78</v>
@@ -4348,7 +4603,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4359,10 +4620,10 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4371,7 +4632,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4382,10 +4649,10 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4394,7 +4661,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4405,10 +4678,10 @@
         <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4417,7 +4690,13 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4427,11 +4706,11 @@
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>306</v>
+      <c r="C20" s="32" t="s">
+        <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4440,7 +4719,13 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4450,11 +4735,11 @@
       <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
-        <v>307</v>
+      <c r="C21" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4463,7 +4748,13 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4473,11 +4764,11 @@
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>308</v>
+      <c r="C22" s="32" t="s">
+        <v>407</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4486,7 +4777,13 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4496,11 +4793,11 @@
       <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>309</v>
+      <c r="C23" s="32" t="s">
+        <v>399</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4509,7 +4806,13 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4519,11 +4822,11 @@
       <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
-        <v>310</v>
+      <c r="C24" s="32" t="s">
+        <v>400</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4532,7 +4835,13 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4542,11 +4851,11 @@
       <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>311</v>
+      <c r="C25" s="32" t="s">
+        <v>401</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4555,7 +4864,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4565,11 +4880,11 @@
       <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
-        <v>312</v>
+      <c r="C26" s="32" t="s">
+        <v>402</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4578,7 +4893,13 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4588,11 +4909,11 @@
       <c r="B27" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
-        <v>313</v>
+      <c r="C27" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4601,7 +4922,13 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4611,11 +4938,11 @@
       <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>314</v>
+      <c r="C28" s="32" t="s">
+        <v>404</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4624,7 +4951,13 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="H28">
+        <v>300</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,13 +4965,13 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C29" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4649,8 +4982,11 @@
       <c r="G29">
         <v>300</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>337</v>
+      <c r="H29">
+        <v>300</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4658,13 +4994,13 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -4676,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4684,13 +5020,13 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -4702,7 +5038,7 @@
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4710,13 +5046,13 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -4728,7 +5064,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4736,13 +5072,13 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -4754,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4762,13 +5098,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -4780,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4788,13 +5124,13 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -4806,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4814,13 +5150,13 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -4832,7 +5168,7 @@
         <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4840,13 +5176,13 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -4858,7 +5194,7 @@
         <v>100</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4866,13 +5202,13 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -4884,7 +5220,7 @@
         <v>200</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4892,13 +5228,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>377</v>
+        <v>344</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -4910,7 +5246,7 @@
         <v>100</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4918,13 +5254,13 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>359</v>
-      </c>
-      <c r="C40" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>378</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -4936,7 +5272,7 @@
         <v>200</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4944,13 +5280,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>379</v>
+        <v>346</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>360</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -4962,11 +5298,89 @@
         <v>400</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>373</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" t="s">
+        <v>430</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>150</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" t="s">
+        <v>431</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
+        <v>429</v>
+      </c>
+      <c r="D44" t="s">
+        <v>432</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4975,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A234CB8-5A87-4E95-94E5-066622680D70}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5003,16 +5417,16 @@
         <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="7"/>
@@ -5022,10 +5436,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -5033,11 +5447,11 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>266</v>
+      <c r="F2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5045,10 +5459,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -5056,11 +5470,11 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>267</v>
+      <c r="F3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5068,10 +5482,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -5079,11 +5493,11 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>268</v>
+      <c r="F4" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5091,10 +5505,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>178</v>
+        <v>139</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -5102,11 +5516,11 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>269</v>
+      <c r="F5" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5114,10 +5528,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>179</v>
+        <v>142</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5125,11 +5539,11 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>270</v>
+      <c r="F6" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5137,10 +5551,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>180</v>
+        <v>143</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -5148,43 +5562,43 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>206</v>
+        <v>144</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -5192,11 +5606,11 @@
       <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>265</v>
+      <c r="F9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5204,10 +5618,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5215,11 +5629,11 @@
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5227,10 +5641,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>182</v>
+        <v>146</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -5238,11 +5652,11 @@
       <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5250,10 +5664,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>207</v>
+        <v>147</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -5261,11 +5675,11 @@
       <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5273,10 +5687,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>208</v>
+        <v>148</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -5284,11 +5698,11 @@
       <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5296,10 +5710,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -5308,8 +5722,8 @@
         <v>3</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>272</v>
+      <c r="G14" s="30" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5317,10 +5731,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -5328,8 +5742,8 @@
       <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>171</v>
+      <c r="G15" s="28" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5337,10 +5751,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -5348,8 +5762,8 @@
       <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>172</v>
+      <c r="G16" s="28" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -5357,10 +5771,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -5368,19 +5782,19 @@
       <c r="E17" s="6">
         <v>3</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>173</v>
+      <c r="G17" s="28" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>212</v>
+      <c r="B18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -5388,223 +5802,230 @@
       <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>174</v>
+      <c r="G18" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>187</v>
+      <c r="B19" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>197</v>
+      <c r="B20" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>196</v>
+      <c r="B21" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>195</v>
+      <c r="B22" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>194</v>
+      <c r="B23" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>188</v>
+      <c r="B24" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>189</v>
+      <c r="B25" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="13">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>271</v>
+      <c r="B26" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>3</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="13">
-        <v>2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>3</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>273</v>
+      <c r="C27" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>193</v>
+      <c r="B28" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="13">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>278</v>
+        <v>222</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>3</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2</v>
-      </c>
-      <c r="E29" s="13">
-        <v>3</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="C30" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5612,16 +6033,16 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="B31" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5629,16 +6050,16 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="B32" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5646,33 +6067,33 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D33" s="14">
-        <v>2</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="C34" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5680,16 +6101,16 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D35" s="14">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="B35" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+      <c r="E35" s="13">
         <v>2</v>
       </c>
     </row>
@@ -5697,57 +6118,57 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="B36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="18">
+        <v>2</v>
+      </c>
+      <c r="E37" s="18">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="19">
-        <v>2</v>
-      </c>
-      <c r="E37" s="19">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="C38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2</v>
-      </c>
-      <c r="E38" s="19">
-        <v>3</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5755,472 +6176,472 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="19">
-        <v>2</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="18">
         <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>3</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="19">
-        <v>2</v>
-      </c>
-      <c r="E40" s="19">
-        <v>3</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="19">
-        <v>2</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
         <v>3</v>
       </c>
       <c r="G41" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
-        <v>41</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="19">
-        <v>2</v>
-      </c>
-      <c r="E42" s="19">
-        <v>3</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="19">
-        <v>2</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="18">
+        <v>2</v>
+      </c>
+      <c r="E43" s="18">
         <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="18">
+        <v>2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>3</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="19">
-        <v>2</v>
-      </c>
-      <c r="E44" s="19">
-        <v>3</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="C45" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="18">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="19">
-        <v>2</v>
-      </c>
-      <c r="E45" s="19">
-        <v>3</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="C46" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+      <c r="E46" s="18">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="19">
-        <v>2</v>
-      </c>
-      <c r="E46" s="19">
-        <v>3</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D47" s="19">
-        <v>2</v>
-      </c>
-      <c r="E47" s="19">
+      <c r="B47" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
         <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D48" s="19">
-        <v>2</v>
-      </c>
-      <c r="E48" s="19">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
-        <v>48</v>
-      </c>
-      <c r="B49" s="19" t="s">
+      <c r="C49" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="18">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D49" s="19">
-        <v>2</v>
-      </c>
-      <c r="E49" s="19">
-        <v>3</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="C50" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2</v>
+      </c>
+      <c r="E50" s="18">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
-        <v>49</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D50" s="19">
-        <v>2</v>
-      </c>
-      <c r="E50" s="19">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="19">
-        <v>2</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="B51" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18">
         <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2</v>
+      </c>
+      <c r="E52" s="18">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D52" s="19">
-        <v>2</v>
-      </c>
-      <c r="E52" s="19">
-        <v>3</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="C53" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2</v>
+      </c>
+      <c r="E53" s="17">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
-        <v>52</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D53" s="18">
-        <v>2</v>
-      </c>
-      <c r="E53" s="18">
-        <v>3</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D54" s="19">
-        <v>2</v>
-      </c>
-      <c r="E54" s="19">
-        <v>3</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="C55" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2</v>
+      </c>
+      <c r="E55" s="18">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
-        <v>54</v>
-      </c>
-      <c r="B55" s="20" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D55" s="18">
-        <v>2</v>
-      </c>
-      <c r="E55" s="19">
-        <v>3</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="C56" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="18">
+        <v>2</v>
+      </c>
+      <c r="E56" s="17">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D56" s="19">
-        <v>2</v>
-      </c>
-      <c r="E56" s="18">
-        <v>3</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D57" s="18">
-        <v>2</v>
-      </c>
-      <c r="E57" s="19">
+      <c r="B57" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2</v>
+      </c>
+      <c r="E57" s="18">
         <v>3</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="18">
+        <v>2</v>
+      </c>
+      <c r="E58" s="18">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>58</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D58" s="19">
-        <v>2</v>
-      </c>
-      <c r="E58" s="19">
-        <v>3</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="C59" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2</v>
+      </c>
+      <c r="E59" s="18">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
-        <v>58</v>
-      </c>
-      <c r="B59" s="20" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D59" s="18">
-        <v>2</v>
-      </c>
-      <c r="E59" s="19">
-        <v>3</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="C60" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D60" s="18">
+        <v>2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>3</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
-        <v>59</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="19">
-        <v>2</v>
-      </c>
-      <c r="E60" s="19">
-        <v>3</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>60</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D61" s="18">
-        <v>3</v>
-      </c>
-      <c r="E61" s="18">
+      <c r="B61" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D61" s="17">
+        <v>3</v>
+      </c>
+      <c r="E61" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="18"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6229,7 +6650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F9D635-A718-4586-A831-3882182ED3F8}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -6237,13 +6658,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6423,7 +6844,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>29</v>
       </c>
       <c r="B18">
@@ -6467,7 +6888,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>33</v>
       </c>
       <c r="B22">
@@ -6500,7 +6921,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>36</v>
       </c>
       <c r="B25">
@@ -6511,7 +6932,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>37</v>
       </c>
       <c r="B26">
@@ -6522,7 +6943,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>38</v>
       </c>
       <c r="B27">
@@ -6555,7 +6976,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>41</v>
       </c>
       <c r="B30">
@@ -6566,7 +6987,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>42</v>
       </c>
       <c r="B31">
@@ -6577,7 +6998,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>43</v>
       </c>
       <c r="B32">
@@ -6610,7 +7031,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>46</v>
       </c>
       <c r="B35">
@@ -6621,7 +7042,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>47</v>
       </c>
       <c r="B36">
@@ -6632,7 +7053,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>48</v>
       </c>
       <c r="B37">
@@ -6654,7 +7075,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>50</v>
       </c>
       <c r="B39">
@@ -6676,7 +7097,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>52</v>
       </c>
       <c r="B41">
@@ -6698,7 +7119,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>54</v>
       </c>
       <c r="B43">
@@ -6709,7 +7130,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>55</v>
       </c>
       <c r="B44">
@@ -6742,7 +7163,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>58</v>
       </c>
       <c r="B47">
@@ -6753,7 +7174,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>59</v>
       </c>
       <c r="B48">
@@ -6764,7 +7185,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6799,40 +7220,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
       <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>107</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -6840,40 +7261,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -6881,40 +7302,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -6922,40 +7343,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6966,7 +7387,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -6992,11 +7413,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>214</v>
+      <c r="M5" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -7004,10 +7425,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -7033,11 +7454,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>214</v>
+      <c r="M6" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -7045,13 +7466,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7077,11 +7498,11 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>215</v>
+      <c r="M7" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -7089,13 +7510,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7121,11 +7542,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>215</v>
+      <c r="M8" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -7133,13 +7554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -7165,11 +7586,11 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>216</v>
+      <c r="M9" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -7177,13 +7598,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -7209,11 +7630,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>215</v>
+      <c r="M10" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -7221,13 +7642,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
         <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -7253,11 +7674,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>214</v>
+      <c r="M11" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -7265,13 +7686,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7297,11 +7718,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>214</v>
+      <c r="M12" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -7309,43 +7730,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -7353,47 +7774,47 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
         <v>126</v>
       </c>
-      <c r="C14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>128</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7436,7 +7857,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>